--- a/DATA_goal/Junction_Flooding_153.xlsx
+++ b/DATA_goal/Junction_Flooding_153.xlsx
@@ -444,21 +444,21 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,14 +468,14 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,31 +655,31 @@
         <v>41585.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0</v>
@@ -724,34 +724,34 @@
         <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41585.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.43</v>
+        <v>2.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.8</v>
+        <v>5.18</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.72</v>
+        <v>4.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.22</v>
+        <v>6.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.43</v>
+        <v>2.84</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.62</v>
+        <v>2.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>274.82</v>
+        <v>27.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.09</v>
+        <v>5.11</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.74</v>
+        <v>3.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.24</v>
+        <v>3.22</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.13</v>
+        <v>2.21</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>57.48</v>
+        <v>5.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41585.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.63</v>
+        <v>2.96</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.35</v>
+        <v>2.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.57</v>
+        <v>4.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>153.77</v>
+        <v>15.38</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.32</v>
+        <v>2.93</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.95</v>
+        <v>2</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.5</v>
+        <v>4.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41585.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.67</v>
+        <v>2.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.92</v>
+        <v>2.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.36</v>
+        <v>3.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>137.83</v>
+        <v>13.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.42</v>
+        <v>2.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.63</v>
+        <v>1.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.29</v>
+        <v>3.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41585.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46.09</v>
+        <v>4.61</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>37.99</v>
+        <v>3.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>63.01</v>
+        <v>6.3</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.51</v>
+        <v>2.55</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.44</v>
+        <v>1.84</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.55</v>
+        <v>1.96</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.65</v>
+        <v>2.37</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>244.32</v>
+        <v>24.43</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>45.97</v>
+        <v>4.6</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.2</v>
+        <v>3.12</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.07</v>
+        <v>3.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.55</v>
+        <v>1.96</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>57.49</v>
+        <v>5.75</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41585.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.01</v>
+        <v>2.2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>48.16</v>
+        <v>4.82</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>39.72</v>
+        <v>3.97</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>67.90000000000001</v>
+        <v>6.79</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.7</v>
+        <v>2.67</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.95</v>
+        <v>1.79</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.28</v>
+        <v>1.93</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.44</v>
+        <v>2.04</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.74</v>
+        <v>2.47</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>255.8</v>
+        <v>25.58</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>48.17</v>
+        <v>4.82</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>32.68</v>
+        <v>3.27</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>33.15</v>
+        <v>3.31</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>61.95</v>
+        <v>6.19</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.85</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41585.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>34.15</v>
+        <v>3.41</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>50.03</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>179.14</v>
+        <v>17.91</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>34.15</v>
+        <v>3.42</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>23.18</v>
+        <v>2.32</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>24.12</v>
+        <v>2.41</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>45.7</v>
+        <v>4.57</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41585.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.14</v>
+        <v>3.41</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.59</v>
+        <v>4.86</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>179.15</v>
+        <v>17.91</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>34.13</v>
+        <v>3.41</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.6</v>
+        <v>2.36</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.28</v>
+        <v>4.43</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41585.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.23</v>
+        <v>2.22</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>48.55</v>
+        <v>4.86</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>40.06</v>
+        <v>4.01</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>67.33</v>
+        <v>6.73</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>26.96</v>
+        <v>2.7</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.46</v>
+        <v>1.95</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.62</v>
+        <v>2.06</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>258.13</v>
+        <v>25.81</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>48.63</v>
+        <v>4.86</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>32.98</v>
+        <v>3.3</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>33.01</v>
+        <v>3.3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>61.28</v>
+        <v>6.13</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_153.xlsx
+++ b/DATA_goal/Junction_Flooding_153.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41585.34027777778</v>
+        <v>44834.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.01</v>
+        <v>1.83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.01</v>
+        <v>1.22</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.01</v>
+        <v>3.88</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.01</v>
+        <v>1.16</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.01</v>
+        <v>1.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.58</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.53</v>
+        <v>3.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.72</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.01</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41585.34722222222</v>
+        <v>44834.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.34</v>
+        <v>0.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.33</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.18</v>
+        <v>1.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.27</v>
+        <v>0.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.02</v>
+        <v>0.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.22</v>
+        <v>1.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.84</v>
+        <v>0.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.36</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.06</v>
+        <v>0.45</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.19</v>
+        <v>0.46</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.64</v>
+        <v>0.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.48</v>
+        <v>5.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.11</v>
+        <v>1.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.38</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.47</v>
+        <v>0.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.22</v>
+        <v>0.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.32</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.38</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.21</v>
+        <v>0.46</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41585.35416666666</v>
+        <v>44834.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.96</v>
+        <v>1.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.44</v>
+        <v>1.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.36</v>
+        <v>2.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.34</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.38</v>
+        <v>7.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.93</v>
+        <v>1.47</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>2</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.12</v>
+        <v>0.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.46</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.05</v>
+        <v>1.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.26</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41585.36111111111</v>
+        <v>44834.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.32</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.78</v>
+        <v>0.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.64</v>
+        <v>0.35</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.8</v>
+        <v>0.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.13</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41585.36805555555</v>
+        <v>44834.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.1</v>
+        <v>24.02</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.6</v>
+        <v>17.77</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.61</v>
+        <v>52.22</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.8</v>
+        <v>42.84</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.71</v>
+        <v>18.9</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.3</v>
+        <v>66.97</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.55</v>
+        <v>29.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.15</v>
+        <v>12.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.72</v>
+        <v>19.18</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.84</v>
+        <v>20.96</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.96</v>
+        <v>22.11</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.54</v>
+        <v>6.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.65</v>
+        <v>18.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.37</v>
+        <v>26.75</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.37</v>
+        <v>15.8</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.89</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>24.43</v>
+        <v>278.8</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.6</v>
+        <v>52.43</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.51</v>
+        <v>17.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.12</v>
+        <v>35.3</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.63</v>
+        <v>18.54</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>2.72</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.11</v>
+        <v>33.59</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.34</v>
+        <v>15.33</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.19</v>
+        <v>13.57</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.38</v>
+        <v>15.95</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.96</v>
+        <v>21.99</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.75</v>
+        <v>60.59</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.88</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41585.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41585.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41585.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41585.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41585.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>159.71</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>30.65</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>41.51</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.6</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_153.xlsx
+++ b/DATA_goal/Junction_Flooding_153.xlsx
@@ -448,7 +448,7 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -456,15 +456,15 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44834.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>2.29</v>
+        <v>22.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44834.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.57</v>
+        <v>55.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44834.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.28</v>
+        <v>72.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44834.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_153.xlsx
+++ b/DATA_goal/Junction_Flooding_153.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44834.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.97</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.02</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.75</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.89</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.29</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.1</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.7</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.94</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.8</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.49</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44834.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.28</v>
+        <v>5.285</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.25</v>
+        <v>3.251</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.438</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.3</v>
+        <v>11.301</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.648</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>4.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.85</v>
+        <v>19.849</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.58</v>
+        <v>2.578</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.6</v>
+        <v>3.598</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.49</v>
+        <v>4.488</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>4.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.337</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>5.71</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.86</v>
+        <v>3.858</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.449</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.67</v>
+        <v>55.667</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.82</v>
+        <v>11.824</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.53</v>
+        <v>7.534</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.75</v>
+        <v>3.748</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>3.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.77</v>
+        <v>3.772</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.56</v>
+        <v>4.559</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.45</v>
+        <v>18.452</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>1.96</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.774</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44834.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.59</v>
+        <v>4.587</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.55</v>
+        <v>14.545</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.52</v>
+        <v>11.515</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.29</v>
+        <v>5.293</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.58</v>
+        <v>20.577</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.43</v>
+        <v>3.427</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.951</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.83</v>
+        <v>5.829</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.047</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>1.69</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.32</v>
+        <v>7.324</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.7</v>
+        <v>4.696</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>72.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.69</v>
+        <v>14.695</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.57</v>
+        <v>9.571999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.97</v>
+        <v>4.975</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.114</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.776</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.64</v>
+        <v>4.636</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.031</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.57</v>
+        <v>18.572</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.607</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.07</v>
+        <v>6.074</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44834.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_153.xlsx
+++ b/DATA_goal/Junction_Flooding_153.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44834.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.604</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.087</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.15</v>
+        <v>2.147</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.02</v>
+        <v>8.021000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.241</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.227</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.59</v>
+        <v>1.589</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.276</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.92</v>
+        <v>9.919</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.46</v>
+        <v>3.462</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>2.181</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.029</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.6</v>
+        <v>3.598</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.107</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.309</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44834.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>1.24</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.31</v>
+      <c r="E6" s="4" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>278.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_153.xlsx
+++ b/DATA_goal/Junction_Flooding_153.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44834.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.441</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.604</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.087</v>
+        <v>3.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.147</v>
+        <v>2.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.137</v>
+        <v>1.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.021000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.745</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.241</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.227</v>
+        <v>1.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.589</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.205</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.919</v>
+        <v>9.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.462</v>
+        <v>3.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.181</v>
+        <v>2.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.029</v>
+        <v>1.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.598</v>
+        <v>3.6</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.969</v>
+        <v>0.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.107</v>
+        <v>1.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.238</v>
+        <v>1.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.582</v>
+        <v>7.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.309</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44834.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.69</v>
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
